--- a/results/mp/tinybert/corona/confidence/42/stop-words-topk-masking-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/stop-words-topk-masking-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="97">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,6 +43,9 @@
     <t>arrested</t>
   </si>
   <si>
+    <t>killed</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
@@ -52,72 +55,78 @@
     <t>died</t>
   </si>
   <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>collapse</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>fear</t>
-  </si>
-  <si>
     <t>recession</t>
   </si>
   <si>
-    <t>shit</t>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>emergency</t>
   </si>
   <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>shortage</t>
+  </si>
+  <si>
+    <t>isolation</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>shortage</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
     <t>risk</t>
   </si>
   <si>
-    <t>isolation</t>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>drop</t>
   </si>
   <si>
     <t>fight</t>
   </si>
   <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
@@ -127,78 +136,87 @@
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>nice</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>friend</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>positive</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>safe</t>
+    <t>friends</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>safety</t>
+    <t>good</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>friends</t>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>ensure</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>strong</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>healthy</t>
-  </si>
-  <si>
     <t>credit</t>
   </si>
   <si>
@@ -208,16 +226,19 @@
     <t>like</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>join</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>ensure</t>
+    <t>protect</t>
   </si>
   <si>
     <t>energy</t>
@@ -226,61 +247,58 @@
     <t>please</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>protect</t>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>gt</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
     <t>online</t>
   </si>
   <si>
-    <t>essential</t>
-  </si>
-  <si>
     <t>shopping</t>
   </si>
   <si>
-    <t>home</t>
-  </si>
-  <si>
     <t>new</t>
   </si>
   <si>
     <t>store</t>
   </si>
   <si>
+    <t>grocery</t>
+  </si>
+  <si>
     <t>stock</t>
   </si>
   <si>
-    <t>grocery</t>
-  </si>
-  <si>
     <t>consumer</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>supermarket</t>
   </si>
   <si>
-    <t>19</t>
+    <t>food</t>
   </si>
   <si>
     <t>co</t>
@@ -644,7 +662,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q56"/>
+  <dimension ref="A1:Q59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -652,10 +670,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="J1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -734,16 +752,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K3">
-        <v>0.9696969696969697</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L3">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="M3">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -763,13 +781,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9705882352941176</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -781,19 +799,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K4">
-        <v>0.9661016949152542</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -805,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -813,38 +831,38 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8333333333333334</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="C5">
+        <v>33</v>
+      </c>
+      <c r="D5">
+        <v>33</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="L5">
         <v>30</v>
       </c>
-      <c r="D5">
+      <c r="M5">
         <v>30</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>6</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5">
-        <v>0.9565217391304348</v>
-      </c>
-      <c r="L5">
-        <v>44</v>
-      </c>
-      <c r="M5">
-        <v>44</v>
-      </c>
       <c r="N5">
         <v>1</v>
       </c>
@@ -855,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -863,13 +881,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7692307692307693</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -881,10 +899,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K6">
         <v>0.8888888888888888</v>
@@ -913,13 +931,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7241379310344828</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C7">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -931,19 +949,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K7">
-        <v>0.875</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L7">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="M7">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -955,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -963,13 +981,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.708904109589041</v>
+        <v>0.76</v>
       </c>
       <c r="C8">
-        <v>207</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>207</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -981,19 +999,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>85</v>
+        <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K8">
-        <v>0.8461538461538461</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L8">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="M8">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1005,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1013,13 +1031,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7</v>
+        <v>0.708904109589041</v>
       </c>
       <c r="C9">
-        <v>14</v>
+        <v>207</v>
       </c>
       <c r="D9">
-        <v>14</v>
+        <v>207</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1031,19 +1049,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K9">
-        <v>0.8414634146341463</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L9">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="M9">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1055,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1063,13 +1081,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.68</v>
+        <v>0.7</v>
       </c>
       <c r="C10">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D10">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1081,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K10">
-        <v>0.8333333333333334</v>
+        <v>0.84375</v>
       </c>
       <c r="L10">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="M10">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1105,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1113,13 +1131,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6086956521739131</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C11">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D11">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1134,16 +1152,16 @@
         <v>9</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K11">
-        <v>0.828125</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="L11">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="M11">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1155,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1163,13 +1181,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5263157894736842</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="C12">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1181,19 +1199,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K12">
-        <v>0.8103448275862069</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L12">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="M12">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1205,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1213,7 +1231,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="C13">
         <v>15</v>
@@ -1231,19 +1249,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K13">
-        <v>0.8085106382978723</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L13">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="M13">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1255,7 +1273,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1263,13 +1281,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D14">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1281,19 +1299,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K14">
-        <v>0.7887323943661971</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="L14">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M14">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1305,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1313,7 +1331,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4838709677419355</v>
+        <v>0.5</v>
       </c>
       <c r="C15">
         <v>15</v>
@@ -1331,19 +1349,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K15">
-        <v>0.7833333333333333</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="L15">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="M15">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1355,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1363,13 +1381,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4615384615384616</v>
+        <v>0.5</v>
       </c>
       <c r="C16">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D16">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1381,19 +1399,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K16">
-        <v>0.746031746031746</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L16">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="M16">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1405,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1413,13 +1431,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4358974358974359</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C17">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D17">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1431,19 +1449,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K17">
-        <v>0.7450980392156863</v>
+        <v>0.775</v>
       </c>
       <c r="L17">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="M17">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1455,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1463,13 +1481,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4133333333333333</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="C18">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D18">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1481,19 +1499,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K18">
-        <v>0.7358490566037735</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L18">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="M18">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1505,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1513,13 +1531,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3557046979865772</v>
+        <v>0.4266666666666667</v>
       </c>
       <c r="C19">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="D19">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1531,19 +1549,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K19">
-        <v>0.73125</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L19">
-        <v>117</v>
+        <v>39</v>
       </c>
       <c r="M19">
-        <v>117</v>
+        <v>39</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1555,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1563,13 +1581,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3529411764705883</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="C20">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D20">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1581,19 +1599,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K20">
-        <v>0.6785714285714286</v>
+        <v>0.746031746031746</v>
       </c>
       <c r="L20">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="M20">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1605,7 +1623,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1613,13 +1631,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3513513513513514</v>
+        <v>0.3892617449664429</v>
       </c>
       <c r="C21">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="D21">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1631,19 +1649,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K21">
-        <v>0.6666666666666666</v>
+        <v>0.74375</v>
       </c>
       <c r="L21">
-        <v>24</v>
+        <v>119</v>
       </c>
       <c r="M21">
-        <v>24</v>
+        <v>119</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1655,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1663,13 +1681,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3389830508474576</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="C22">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D22">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1681,19 +1699,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K22">
-        <v>0.6595744680851063</v>
+        <v>0.7264150943396226</v>
       </c>
       <c r="L22">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="M22">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1705,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1734,16 +1752,16 @@
         <v>345</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K23">
-        <v>0.6458333333333334</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L23">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M23">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1755,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1763,13 +1781,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.2962962962962963</v>
+        <v>0.3050847457627119</v>
       </c>
       <c r="C24">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="D24">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1781,19 +1799,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>133</v>
+        <v>41</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K24">
-        <v>0.6363636363636364</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L24">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M24">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1813,13 +1831,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.2727272727272727</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="C25">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D25">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1831,19 +1849,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K25">
-        <v>0.6318537859007833</v>
+        <v>0.6914893617021277</v>
       </c>
       <c r="L25">
-        <v>242</v>
+        <v>65</v>
       </c>
       <c r="M25">
-        <v>242</v>
+        <v>65</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1855,7 +1873,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>141</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1863,13 +1881,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.2549019607843137</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="C26">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D26">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1881,19 +1899,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K26">
-        <v>0.6296296296296297</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L26">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M26">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1905,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1913,13 +1931,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.225</v>
+        <v>0.291005291005291</v>
       </c>
       <c r="C27">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="D27">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1931,19 +1949,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>62</v>
+        <v>134</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K27">
-        <v>0.5882352941176471</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="L27">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M27">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1955,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1963,13 +1981,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2222222222222222</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="C28">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D28">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1981,19 +1999,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K28">
-        <v>0.58</v>
+        <v>0.625</v>
       </c>
       <c r="L28">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M28">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2005,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2013,13 +2031,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.1865079365079365</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="C29">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="D29">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2031,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>205</v>
+        <v>70</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K29">
-        <v>0.5676470588235294</v>
+        <v>0.6083550913838121</v>
       </c>
       <c r="L29">
-        <v>193</v>
+        <v>233</v>
       </c>
       <c r="M29">
-        <v>193</v>
+        <v>233</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2055,7 +2073,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2063,13 +2081,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1126005361930295</v>
+        <v>0.2203389830508475</v>
       </c>
       <c r="C30">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D30">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2081,436 +2099,508 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>331</v>
+        <v>46</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K30">
-        <v>0.5581395348837209</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L30">
+        <v>20</v>
+      </c>
+      <c r="M30">
+        <v>20</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31">
+        <v>0.1625</v>
+      </c>
+      <c r="C31">
+        <v>13</v>
+      </c>
+      <c r="D31">
+        <v>13</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>67</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K31">
+        <v>0.58</v>
+      </c>
+      <c r="L31">
+        <v>29</v>
+      </c>
+      <c r="M31">
+        <v>29</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32">
+        <v>0.1507936507936508</v>
+      </c>
+      <c r="C32">
+        <v>38</v>
+      </c>
+      <c r="D32">
+        <v>38</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>214</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K32">
+        <v>0.5764705882352941</v>
+      </c>
+      <c r="L32">
+        <v>196</v>
+      </c>
+      <c r="M32">
+        <v>196</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33">
+        <v>0.09919571045576407</v>
+      </c>
+      <c r="C33">
+        <v>37</v>
+      </c>
+      <c r="D33">
+        <v>37</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>336</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K33">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="L33">
+        <v>25</v>
+      </c>
+      <c r="M33">
+        <v>25</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="J34" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K34">
+        <v>0.5423728813559322</v>
+      </c>
+      <c r="L34">
+        <v>160</v>
+      </c>
+      <c r="M34">
+        <v>160</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="J35" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K35">
+        <v>0.5393258426966292</v>
+      </c>
+      <c r="L35">
+        <v>48</v>
+      </c>
+      <c r="M35">
+        <v>48</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="J36" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K36">
+        <v>0.5348837209302325</v>
+      </c>
+      <c r="L36">
+        <v>23</v>
+      </c>
+      <c r="M36">
+        <v>23</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="J37" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K37">
+        <v>0.4794520547945205</v>
+      </c>
+      <c r="L37">
+        <v>35</v>
+      </c>
+      <c r="M37">
+        <v>35</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="J38" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K38">
+        <v>0.475</v>
+      </c>
+      <c r="L38">
+        <v>19</v>
+      </c>
+      <c r="M38">
+        <v>19</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="J39" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K39">
+        <v>0.4351464435146444</v>
+      </c>
+      <c r="L39">
+        <v>104</v>
+      </c>
+      <c r="M39">
+        <v>104</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="J40" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K40">
+        <v>0.4230769230769231</v>
+      </c>
+      <c r="L40">
+        <v>33</v>
+      </c>
+      <c r="M40">
+        <v>33</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="J41" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K41">
+        <v>0.390625</v>
+      </c>
+      <c r="L41">
+        <v>25</v>
+      </c>
+      <c r="M41">
+        <v>25</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="J42" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K42">
+        <v>0.3809523809523809</v>
+      </c>
+      <c r="L42">
+        <v>16</v>
+      </c>
+      <c r="M42">
+        <v>16</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="J43" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K43">
+        <v>0.375</v>
+      </c>
+      <c r="L43">
+        <v>15</v>
+      </c>
+      <c r="M43">
+        <v>15</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="J44" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K44">
+        <v>0.3692307692307693</v>
+      </c>
+      <c r="L44">
         <v>24</v>
       </c>
-      <c r="M30">
+      <c r="M44">
         <v>24</v>
       </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="J31" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K31">
-        <v>0.550561797752809</v>
-      </c>
-      <c r="L31">
-        <v>49</v>
-      </c>
-      <c r="M31">
-        <v>49</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="J32" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K32">
-        <v>0.5491525423728814</v>
-      </c>
-      <c r="L32">
-        <v>162</v>
-      </c>
-      <c r="M32">
-        <v>162</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="33" spans="10:17">
-      <c r="J33" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K33">
-        <v>0.5416666666666666</v>
-      </c>
-      <c r="L33">
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="J45" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K45">
+        <v>0.3428571428571429</v>
+      </c>
+      <c r="L45">
+        <v>24</v>
+      </c>
+      <c r="M45">
+        <v>24</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="J46" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K46">
+        <v>0.2765957446808511</v>
+      </c>
+      <c r="L46">
         <v>13</v>
       </c>
-      <c r="M33">
+      <c r="M46">
         <v>13</v>
       </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="10:17">
-      <c r="J34" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K34">
-        <v>0.525</v>
-      </c>
-      <c r="L34">
-        <v>21</v>
-      </c>
-      <c r="M34">
-        <v>21</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="10:17">
-      <c r="J35" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K35">
-        <v>0.4728033472803347</v>
-      </c>
-      <c r="L35">
-        <v>113</v>
-      </c>
-      <c r="M35">
-        <v>113</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="36" spans="10:17">
-      <c r="J36" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K36">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="L36">
-        <v>21</v>
-      </c>
-      <c r="M36">
-        <v>21</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="10:17">
-      <c r="J37" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K37">
-        <v>0.4520547945205479</v>
-      </c>
-      <c r="L37">
-        <v>33</v>
-      </c>
-      <c r="M37">
-        <v>33</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="10:17">
-      <c r="J38" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K38">
-        <v>0.4461538461538462</v>
-      </c>
-      <c r="L38">
-        <v>29</v>
-      </c>
-      <c r="M38">
-        <v>29</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="10:17">
-      <c r="J39" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K39">
-        <v>0.4375</v>
-      </c>
-      <c r="L39">
-        <v>28</v>
-      </c>
-      <c r="M39">
-        <v>28</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="40" spans="10:17">
-      <c r="J40" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K40">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="L40">
-        <v>18</v>
-      </c>
-      <c r="M40">
-        <v>18</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="41" spans="10:17">
-      <c r="J41" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K41">
-        <v>0.425</v>
-      </c>
-      <c r="L41">
-        <v>17</v>
-      </c>
-      <c r="M41">
-        <v>17</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="42" spans="10:17">
-      <c r="J42" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K42">
-        <v>0.3846153846153846</v>
-      </c>
-      <c r="L42">
-        <v>30</v>
-      </c>
-      <c r="M42">
-        <v>30</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="43" spans="10:17">
-      <c r="J43" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K43">
-        <v>0.3571428571428572</v>
-      </c>
-      <c r="L43">
-        <v>25</v>
-      </c>
-      <c r="M43">
-        <v>25</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="44" spans="10:17">
-      <c r="J44" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K44">
-        <v>0.1028708133971292</v>
-      </c>
-      <c r="L44">
-        <v>43</v>
-      </c>
-      <c r="M44">
-        <v>43</v>
-      </c>
-      <c r="N44">
-        <v>1</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="45" spans="10:17">
-      <c r="J45" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K45">
-        <v>0.1023622047244094</v>
-      </c>
-      <c r="L45">
-        <v>13</v>
-      </c>
-      <c r="M45">
-        <v>13</v>
-      </c>
-      <c r="N45">
-        <v>1</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="46" spans="10:17">
-      <c r="J46" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K46">
-        <v>0.07211538461538461</v>
-      </c>
-      <c r="L46">
-        <v>30</v>
-      </c>
-      <c r="M46">
-        <v>30</v>
-      </c>
       <c r="N46">
         <v>1</v>
       </c>
@@ -2521,21 +2611,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="47" spans="10:17">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
       <c r="J47" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K47">
-        <v>0.06976744186046512</v>
+        <v>0.1259842519685039</v>
       </c>
       <c r="L47">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M47">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2547,47 +2637,47 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="48" spans="10:17">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
       <c r="J48" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K48">
-        <v>0.06542056074766354</v>
+        <v>0.08133971291866028</v>
       </c>
       <c r="L48">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="M48">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="N48">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>200</v>
+        <v>384</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K49">
-        <v>0.04697986577181208</v>
+        <v>0.07451923076923077</v>
       </c>
       <c r="L49">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="M49">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2599,21 +2689,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>852</v>
+        <v>385</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K50">
-        <v>0.04587155963302753</v>
+        <v>0.06511627906976744</v>
       </c>
       <c r="L50">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M50">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2625,21 +2715,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>312</v>
+        <v>201</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K51">
-        <v>0.04328523862375139</v>
+        <v>0.058165548098434</v>
       </c>
       <c r="L51">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="M51">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2651,21 +2741,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>862</v>
+        <v>842</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K52">
-        <v>0.03538461538461538</v>
+        <v>0.04661487236403995</v>
       </c>
       <c r="L52">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="M52">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2677,47 +2767,47 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>627</v>
+        <v>859</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K53">
-        <v>0.02655889145496536</v>
+        <v>0.03975535168195719</v>
       </c>
       <c r="L53">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M53">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="N53">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O53">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>843</v>
+        <v>314</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K54">
-        <v>0.02616822429906542</v>
+        <v>0.02773497688751926</v>
       </c>
       <c r="L54">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="M54">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="N54">
         <v>0.95</v>
@@ -2729,59 +2819,137 @@
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>2084</v>
+        <v>631</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K55">
-        <v>0.01256848211408314</v>
+        <v>0.02664796633941094</v>
       </c>
       <c r="L55">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="M55">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="N55">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
       <c r="O55">
-        <v>0.08999999999999997</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P55" t="b">
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>3064</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K56">
-        <v>0.005006257822277847</v>
+        <v>0.02422145328719723</v>
       </c>
       <c r="L56">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M56">
         <v>21</v>
       </c>
       <c r="N56">
-        <v>0.76</v>
+        <v>1</v>
       </c>
       <c r="O56">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="P56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56">
-        <v>3180</v>
+        <v>846</v>
+      </c>
+    </row>
+    <row r="57" spans="10:17">
+      <c r="J57" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K57">
+        <v>0.01446280991735537</v>
+      </c>
+      <c r="L57">
+        <v>14</v>
+      </c>
+      <c r="M57">
+        <v>14</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="58" spans="10:17">
+      <c r="J58" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K58">
+        <v>0.01129761136216914</v>
+      </c>
+      <c r="L58">
+        <v>35</v>
+      </c>
+      <c r="M58">
+        <v>44</v>
+      </c>
+      <c r="N58">
+        <v>0.8</v>
+      </c>
+      <c r="O58">
+        <v>0.2</v>
+      </c>
+      <c r="P58" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>3063</v>
+      </c>
+    </row>
+    <row r="59" spans="10:17">
+      <c r="J59" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K59">
+        <v>0.006570713391739674</v>
+      </c>
+      <c r="L59">
+        <v>21</v>
+      </c>
+      <c r="M59">
+        <v>26</v>
+      </c>
+      <c r="N59">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="O59">
+        <v>0.1899999999999999</v>
+      </c>
+      <c r="P59" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>3175</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/42/stop-words-topk-masking-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/stop-words-topk-masking-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="103">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,24 +40,24 @@
     <t>name</t>
   </si>
   <si>
+    <t>killed</t>
+  </si>
+  <si>
     <t>arrested</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
@@ -67,52 +67,55 @@
     <t>forced</t>
   </si>
   <si>
-    <t>anxiety</t>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>shit</t>
   </si>
   <si>
     <t>fear</t>
   </si>
   <si>
-    <t>shit</t>
+    <t>war</t>
+  </si>
+  <si>
+    <t>recession</t>
   </si>
   <si>
     <t>collapse</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>recession</t>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>fears</t>
   </si>
   <si>
     <t>shame</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>fuck</t>
+    <t>shortage</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>shortage</t>
+    <t>sc</t>
   </si>
   <si>
     <t>isolation</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>sc</t>
+    <t>drop</t>
   </si>
   <si>
     <t>risk</t>
@@ -121,9 +124,6 @@
     <t>empty</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
     <t>fight</t>
   </si>
   <si>
@@ -136,169 +136,187 @@
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>nice</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>special</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>positive</t>
+    <t>healthy</t>
   </si>
   <si>
     <t>safe</t>
   </si>
   <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>safety</t>
+    <t>support</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>healthy</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>dear</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>fresh</t>
+    <t>energy</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>credit</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>join</t>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>alert</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>energy</t>
+    <t>save</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
     <t>increase</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>alert</t>
+    <t>hope</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
+    <t>give</t>
+  </si>
+  <si>
     <t>key</t>
   </si>
   <si>
-    <t>essential</t>
+    <t>health</t>
+  </si>
+  <si>
+    <t>shopping</t>
   </si>
   <si>
     <t>online</t>
   </si>
   <si>
-    <t>shopping</t>
-  </si>
-  <si>
     <t>new</t>
   </si>
   <si>
+    <t>home</t>
+  </si>
+  <si>
     <t>store</t>
   </si>
   <si>
+    <t>stock</t>
+  </si>
+  <si>
     <t>grocery</t>
   </si>
   <si>
-    <t>stock</t>
+    <t>san</t>
+  </si>
+  <si>
+    <t>19</t>
   </si>
   <si>
     <t>consumer</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>supermarket</t>
-  </si>
-  <si>
-    <t>food</t>
   </si>
   <si>
     <t>co</t>
@@ -662,7 +680,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q59"/>
+  <dimension ref="A1:Q65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -734,10 +752,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -755,13 +773,13 @@
         <v>40</v>
       </c>
       <c r="K3">
-        <v>0.9782608695652174</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="M3">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -773,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -784,10 +802,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -805,13 +823,13 @@
         <v>41</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -823,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -855,13 +873,13 @@
         <v>42</v>
       </c>
       <c r="K5">
-        <v>0.9090909090909091</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="L5">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M5">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -873,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -881,13 +899,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7777777777777778</v>
+        <v>0.8</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -899,19 +917,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>43</v>
       </c>
       <c r="K6">
-        <v>0.8888888888888888</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="L6">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="M6">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -923,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -955,13 +973,13 @@
         <v>44</v>
       </c>
       <c r="K7">
-        <v>0.8846153846153846</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L7">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="M7">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -981,13 +999,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.76</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="C8">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D8">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -999,19 +1017,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>45</v>
       </c>
       <c r="K8">
-        <v>0.8839285714285714</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L8">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="M8">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1023,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1031,13 +1049,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.708904109589041</v>
+        <v>0.6986301369863014</v>
       </c>
       <c r="C9">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D9">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1049,19 +1067,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K9">
-        <v>0.8611111111111112</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L9">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="M9">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1073,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1081,13 +1099,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="C10">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1099,19 +1117,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K10">
-        <v>0.84375</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L10">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="M10">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1123,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1131,13 +1149,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6896551724137931</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="C11">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1149,19 +1167,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>48</v>
       </c>
       <c r="K11">
-        <v>0.8421052631578947</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L11">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="M11">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1173,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1181,13 +1199,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6129032258064516</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C12">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D12">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1199,19 +1217,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>49</v>
       </c>
       <c r="K12">
-        <v>0.8414634146341463</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L12">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M12">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1223,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1231,13 +1249,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5769230769230769</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C13">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D13">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1249,7 +1267,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>50</v>
@@ -1281,13 +1299,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5128205128205128</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C14">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D14">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1299,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K14">
-        <v>0.8098591549295775</v>
+        <v>0.8203125</v>
       </c>
       <c r="L14">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="M14">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1323,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1331,13 +1349,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="C15">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D15">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1349,19 +1367,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>52</v>
       </c>
       <c r="K15">
-        <v>0.7872340425531915</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L15">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="M15">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1373,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1381,13 +1399,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="C16">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D16">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1399,19 +1417,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>53</v>
       </c>
       <c r="K16">
-        <v>0.7857142857142857</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="L16">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="M16">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1423,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1431,7 +1449,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4838709677419355</v>
+        <v>0.5</v>
       </c>
       <c r="C17">
         <v>15</v>
@@ -1449,19 +1467,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>54</v>
       </c>
       <c r="K17">
-        <v>0.775</v>
+        <v>0.803921568627451</v>
       </c>
       <c r="L17">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="M17">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1473,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1481,13 +1499,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4324324324324325</v>
+        <v>0.4</v>
       </c>
       <c r="C18">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D18">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1499,19 +1517,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>55</v>
       </c>
       <c r="K18">
-        <v>0.7727272727272727</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L18">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="M18">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1523,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1531,13 +1549,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4266666666666667</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C19">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D19">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1549,19 +1567,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>56</v>
       </c>
       <c r="K19">
-        <v>0.7647058823529411</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L19">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="M19">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1573,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1581,13 +1599,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4102564102564102</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="C20">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D20">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1605,13 +1623,13 @@
         <v>57</v>
       </c>
       <c r="K20">
-        <v>0.746031746031746</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L20">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="M20">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1623,7 +1641,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1631,13 +1649,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3892617449664429</v>
+        <v>0.3585271317829458</v>
       </c>
       <c r="C21">
-        <v>58</v>
+        <v>185</v>
       </c>
       <c r="D21">
-        <v>58</v>
+        <v>185</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1649,19 +1667,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>91</v>
+        <v>331</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K21">
-        <v>0.74375</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L21">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="M21">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1673,7 +1691,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>41</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1681,13 +1699,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3513513513513514</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="C22">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D22">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1699,19 +1717,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>59</v>
       </c>
       <c r="K22">
-        <v>0.7264150943396226</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L22">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="M22">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1723,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1731,13 +1749,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3313953488372093</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="C23">
-        <v>171</v>
+        <v>13</v>
       </c>
       <c r="D23">
-        <v>171</v>
+        <v>13</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1749,19 +1767,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>345</v>
+        <v>24</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>60</v>
       </c>
       <c r="K23">
-        <v>0.7222222222222222</v>
+        <v>0.7547169811320755</v>
       </c>
       <c r="L23">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M23">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1773,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1781,13 +1799,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3050847457627119</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="C24">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D24">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1799,19 +1817,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>61</v>
       </c>
       <c r="K24">
-        <v>0.7037037037037037</v>
+        <v>0.71875</v>
       </c>
       <c r="L24">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c r="M24">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1823,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>8</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1831,13 +1849,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.2941176470588235</v>
+        <v>0.3221476510067114</v>
       </c>
       <c r="C25">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="D25">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1849,19 +1867,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>36</v>
+        <v>101</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>62</v>
       </c>
       <c r="K25">
-        <v>0.6914893617021277</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L25">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="M25">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1873,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1881,13 +1899,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.2941176470588235</v>
+        <v>0.2804232804232804</v>
       </c>
       <c r="C26">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="D26">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1899,19 +1917,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>36</v>
+        <v>136</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>63</v>
       </c>
       <c r="K26">
-        <v>0.6666666666666666</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L26">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="M26">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1923,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1931,13 +1949,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.291005291005291</v>
+        <v>0.2549019607843137</v>
       </c>
       <c r="C27">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="D27">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1949,19 +1967,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>134</v>
+        <v>38</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>64</v>
       </c>
       <c r="K27">
-        <v>0.6388888888888888</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L27">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M27">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1973,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1981,13 +1999,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2727272727272727</v>
+        <v>0.2372881355932203</v>
       </c>
       <c r="C28">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D28">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1999,19 +2017,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>65</v>
       </c>
       <c r="K28">
-        <v>0.625</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L28">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="M28">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2023,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2031,13 +2049,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2222222222222222</v>
+        <v>0.2337662337662338</v>
       </c>
       <c r="C29">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D29">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2049,19 +2067,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>66</v>
       </c>
       <c r="K29">
-        <v>0.6083550913838121</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="L29">
-        <v>233</v>
+        <v>60</v>
       </c>
       <c r="M29">
-        <v>233</v>
+        <v>60</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2073,7 +2091,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>150</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2081,13 +2099,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2203389830508475</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="C30">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D30">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2099,19 +2117,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>67</v>
       </c>
       <c r="K30">
-        <v>0.5882352941176471</v>
+        <v>0.625</v>
       </c>
       <c r="L30">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M30">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2123,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2131,13 +2149,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.1625</v>
+        <v>0.1875</v>
       </c>
       <c r="C31">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D31">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2149,19 +2167,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>68</v>
       </c>
       <c r="K31">
-        <v>0.58</v>
+        <v>0.6135770234986945</v>
       </c>
       <c r="L31">
-        <v>29</v>
+        <v>235</v>
       </c>
       <c r="M31">
-        <v>29</v>
+        <v>235</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2173,7 +2191,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>21</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2181,13 +2199,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.1507936507936508</v>
+        <v>0.1746031746031746</v>
       </c>
       <c r="C32">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D32">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2199,19 +2217,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>69</v>
       </c>
       <c r="K32">
-        <v>0.5764705882352941</v>
+        <v>0.6</v>
       </c>
       <c r="L32">
-        <v>196</v>
+        <v>27</v>
       </c>
       <c r="M32">
-        <v>196</v>
+        <v>27</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2223,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>144</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2231,13 +2249,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.09919571045576407</v>
+        <v>0.1126005361930295</v>
       </c>
       <c r="C33">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D33">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2249,13 +2267,13 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>70</v>
       </c>
       <c r="K33">
-        <v>0.5555555555555556</v>
+        <v>0.5813953488372093</v>
       </c>
       <c r="L33">
         <v>25</v>
@@ -2273,7 +2291,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2281,13 +2299,13 @@
         <v>71</v>
       </c>
       <c r="K34">
-        <v>0.5423728813559322</v>
+        <v>0.5764705882352941</v>
       </c>
       <c r="L34">
-        <v>160</v>
+        <v>196</v>
       </c>
       <c r="M34">
-        <v>160</v>
+        <v>196</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2299,7 +2317,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2307,13 +2325,13 @@
         <v>72</v>
       </c>
       <c r="K35">
-        <v>0.5393258426966292</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L35">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="M35">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2325,7 +2343,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>41</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2333,13 +2351,13 @@
         <v>73</v>
       </c>
       <c r="K36">
-        <v>0.5348837209302325</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="L36">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M36">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2351,7 +2369,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2359,13 +2377,13 @@
         <v>74</v>
       </c>
       <c r="K37">
-        <v>0.4794520547945205</v>
+        <v>0.535593220338983</v>
       </c>
       <c r="L37">
-        <v>35</v>
+        <v>158</v>
       </c>
       <c r="M37">
-        <v>35</v>
+        <v>158</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2377,7 +2395,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>38</v>
+        <v>137</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2385,13 +2403,13 @@
         <v>75</v>
       </c>
       <c r="K38">
-        <v>0.475</v>
+        <v>0.5168539325842697</v>
       </c>
       <c r="L38">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="M38">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2403,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2411,13 +2429,13 @@
         <v>76</v>
       </c>
       <c r="K39">
-        <v>0.4351464435146444</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="L39">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="M39">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2429,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>135</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2437,13 +2455,13 @@
         <v>77</v>
       </c>
       <c r="K40">
-        <v>0.4230769230769231</v>
+        <v>0.5</v>
       </c>
       <c r="L40">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="M40">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2455,7 +2473,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2463,13 +2481,13 @@
         <v>78</v>
       </c>
       <c r="K41">
-        <v>0.390625</v>
+        <v>0.4931506849315068</v>
       </c>
       <c r="L41">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="M41">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2481,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2489,13 +2507,13 @@
         <v>79</v>
       </c>
       <c r="K42">
-        <v>0.3809523809523809</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="L42">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M42">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2507,7 +2525,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2515,13 +2533,13 @@
         <v>80</v>
       </c>
       <c r="K43">
-        <v>0.375</v>
+        <v>0.4644351464435146</v>
       </c>
       <c r="L43">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="M43">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2533,7 +2551,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>25</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2541,13 +2559,13 @@
         <v>81</v>
       </c>
       <c r="K44">
-        <v>0.3692307692307693</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="L44">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="M44">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2559,7 +2577,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>41</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2567,13 +2585,13 @@
         <v>82</v>
       </c>
       <c r="K45">
-        <v>0.3428571428571429</v>
+        <v>0.4375</v>
       </c>
       <c r="L45">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M45">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2585,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2593,13 +2611,13 @@
         <v>83</v>
       </c>
       <c r="K46">
-        <v>0.2765957446808511</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="L46">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M46">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2611,7 +2629,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -2619,13 +2637,13 @@
         <v>84</v>
       </c>
       <c r="K47">
-        <v>0.1259842519685039</v>
+        <v>0.4</v>
       </c>
       <c r="L47">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="M47">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2637,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>111</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -2645,13 +2663,13 @@
         <v>85</v>
       </c>
       <c r="K48">
-        <v>0.08133971291866028</v>
+        <v>0.375</v>
       </c>
       <c r="L48">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="M48">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2663,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>384</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2671,13 +2689,13 @@
         <v>86</v>
       </c>
       <c r="K49">
-        <v>0.07451923076923077</v>
+        <v>0.3142857142857143</v>
       </c>
       <c r="L49">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="M49">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2689,7 +2707,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>385</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2697,13 +2715,13 @@
         <v>87</v>
       </c>
       <c r="K50">
-        <v>0.06511627906976744</v>
+        <v>0.2786885245901639</v>
       </c>
       <c r="L50">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M50">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2715,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>201</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2723,13 +2741,13 @@
         <v>88</v>
       </c>
       <c r="K51">
-        <v>0.058165548098434</v>
+        <v>0.2765957446808511</v>
       </c>
       <c r="L51">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M51">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2741,7 +2759,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>842</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2749,13 +2767,13 @@
         <v>89</v>
       </c>
       <c r="K52">
-        <v>0.04661487236403995</v>
+        <v>0.1068702290076336</v>
       </c>
       <c r="L52">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="M52">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2767,7 +2785,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>859</v>
+        <v>117</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2775,13 +2793,13 @@
         <v>90</v>
       </c>
       <c r="K53">
-        <v>0.03975535168195719</v>
+        <v>0.1033653846153846</v>
       </c>
       <c r="L53">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M53">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2793,7 +2811,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>314</v>
+        <v>373</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2801,25 +2819,25 @@
         <v>91</v>
       </c>
       <c r="K54">
-        <v>0.02773497688751926</v>
+        <v>0.09808612440191387</v>
       </c>
       <c r="L54">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="M54">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="N54">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>631</v>
+        <v>377</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2827,25 +2845,25 @@
         <v>92</v>
       </c>
       <c r="K55">
-        <v>0.02664796633941094</v>
+        <v>0.08372093023255814</v>
       </c>
       <c r="L55">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="M55">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="N55">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O55">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>2082</v>
+        <v>197</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2853,13 +2871,13 @@
         <v>93</v>
       </c>
       <c r="K56">
-        <v>0.02422145328719723</v>
+        <v>0.07906976744186046</v>
       </c>
       <c r="L56">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M56">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2871,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>846</v>
+        <v>198</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2879,13 +2897,13 @@
         <v>94</v>
       </c>
       <c r="K57">
-        <v>0.01446280991735537</v>
+        <v>0.05369127516778523</v>
       </c>
       <c r="L57">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="M57">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2897,7 +2915,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>954</v>
+        <v>846</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2905,25 +2923,25 @@
         <v>95</v>
       </c>
       <c r="K58">
-        <v>0.01129761136216914</v>
+        <v>0.04281345565749235</v>
       </c>
       <c r="L58">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="M58">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="N58">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="O58">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="P58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58">
-        <v>3063</v>
+        <v>313</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2931,25 +2949,181 @@
         <v>96</v>
       </c>
       <c r="K59">
-        <v>0.006570713391739674</v>
+        <v>0.03995560488346282</v>
       </c>
       <c r="L59">
+        <v>36</v>
+      </c>
+      <c r="M59">
+        <v>36</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="60" spans="10:17">
+      <c r="J60" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K60">
+        <v>0.03497942386831276</v>
+      </c>
+      <c r="L60">
+        <v>17</v>
+      </c>
+      <c r="M60">
+        <v>17</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="61" spans="10:17">
+      <c r="J61" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K61">
+        <v>0.03408029878618114</v>
+      </c>
+      <c r="L61">
+        <v>73</v>
+      </c>
+      <c r="M61">
+        <v>74</v>
+      </c>
+      <c r="N61">
+        <v>0.99</v>
+      </c>
+      <c r="O61">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="P61" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q61">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="62" spans="10:17">
+      <c r="J62" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K62">
+        <v>0.03395061728395062</v>
+      </c>
+      <c r="L62">
+        <v>22</v>
+      </c>
+      <c r="M62">
+        <v>24</v>
+      </c>
+      <c r="N62">
+        <v>0.92</v>
+      </c>
+      <c r="O62">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P62" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q62">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="63" spans="10:17">
+      <c r="J63" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K63">
+        <v>0.02540415704387991</v>
+      </c>
+      <c r="L63">
+        <v>22</v>
+      </c>
+      <c r="M63">
+        <v>23</v>
+      </c>
+      <c r="N63">
+        <v>0.96</v>
+      </c>
+      <c r="O63">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P63" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q63">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="64" spans="10:17">
+      <c r="J64" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K64">
+        <v>0.01835748792270531</v>
+      </c>
+      <c r="L64">
+        <v>57</v>
+      </c>
+      <c r="M64">
+        <v>59</v>
+      </c>
+      <c r="N64">
+        <v>0.97</v>
+      </c>
+      <c r="O64">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P64" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q64">
+        <v>3048</v>
+      </c>
+    </row>
+    <row r="65" spans="10:17">
+      <c r="J65" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K65">
+        <v>0.006564551422319475</v>
+      </c>
+      <c r="L65">
         <v>21</v>
       </c>
-      <c r="M59">
-        <v>26</v>
-      </c>
-      <c r="N59">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="O59">
-        <v>0.1899999999999999</v>
-      </c>
-      <c r="P59" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q59">
-        <v>3175</v>
+      <c r="M65">
+        <v>23</v>
+      </c>
+      <c r="N65">
+        <v>0.91</v>
+      </c>
+      <c r="O65">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P65" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q65">
+        <v>3178</v>
       </c>
     </row>
   </sheetData>
